--- a/File_Excel/commenti_per_notizia.xlsx
+++ b/File_Excel/commenti_per_notizia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>62</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>143</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52">
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56">
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58">
@@ -1638,11 +1638,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59">
@@ -1654,16 +1654,16 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60">
@@ -1680,11 +1680,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61">
@@ -1701,11 +1701,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62">
@@ -1717,16 +1717,16 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63">
@@ -1743,11 +1743,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>L'incoronazione di Re Carlo</t>
+          <t>L'implosione del sottomarino Titan</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66">
@@ -1806,11 +1806,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67">
@@ -1827,11 +1827,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68">
@@ -1843,16 +1843,16 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69">
@@ -1869,11 +1869,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70">
@@ -1890,11 +1890,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71">
@@ -1906,16 +1906,16 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72">
@@ -1932,28 +1932,28 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>L'omicidio di Giulia Cecchettin</t>
+          <t>L'incoronazione di Re Carlo</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -1964,21 +1964,21 @@
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>L'omicidio di Giulia Cecchettin</t>
+          <t>L'incoronazione di Re Carlo</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75">
@@ -1995,11 +1995,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76">
@@ -2011,16 +2011,16 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77">
@@ -2032,16 +2032,16 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78">
@@ -2058,11 +2058,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79">
@@ -2074,16 +2074,16 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80">
@@ -2095,16 +2095,16 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81">
@@ -2121,53 +2121,53 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr">
         <is>
-          <t>La cattura di Matteo Messina Denaro</t>
+          <t>L'omicidio di Giulia Cecchettin</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
-          <t>La cattura di Matteo Messina Denaro</t>
+          <t>L'omicidio di Giulia Cecchettin</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84">
@@ -2184,11 +2184,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85">
@@ -2200,16 +2200,16 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86">
@@ -2221,16 +2221,16 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87">
@@ -2247,11 +2247,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88">
@@ -2263,16 +2263,16 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89">
@@ -2284,16 +2284,16 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -2321,42 +2321,42 @@
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
-          <t>La morte di Silvio Berlusconi</t>
+          <t>La cattura di Matteo Messina Denaro</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr">
         <is>
-          <t>La morte di Silvio Berlusconi</t>
+          <t>La cattura di Matteo Messina Denaro</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -2389,16 +2389,16 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95">
@@ -2410,16 +2410,16 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96">
@@ -2436,11 +2436,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97">
@@ -2452,16 +2452,16 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
@@ -2473,16 +2473,16 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99">
@@ -2494,28 +2494,28 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corrirere Della Sera</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Strage di Cutro</t>
+          <t>La morte di Silvio Berlusconi</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Strage di Cutro</t>
+          <t>La morte di Silvio Berlusconi</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2545,19 +2545,19 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Strage di Cutro</t>
+          <t>La morte di Silvio Berlusconi</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105">
@@ -2620,7 +2620,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2629,7 +2629,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2692,7 +2692,70 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>104</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Strage di Cutro</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>La Repubblica</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Strage di Cutro</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>La Repubblica</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Strage di Cutro</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>La Repubblica</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/File_Excel/commenti_per_notizia.xlsx
+++ b/File_Excel/commenti_per_notizia.xlsx
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -851,21 +851,21 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Geolier e i fischi a Sanremo</t>
+          <t>CRONACA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>Ma cosa avete buttato</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>ni Emilia Romagna</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -882,7 +882,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -903,7 +903,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -919,16 +919,16 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -945,7 +945,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -966,7 +966,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -982,12 +982,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1040,21 +1040,21 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Il caso Chiara Ferragni e Balocco</t>
+          <t>Geolier e i fischi a Sanremo</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1108,16 +1108,16 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -1134,11 +1134,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35">
@@ -1155,11 +1155,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
@@ -1171,16 +1171,16 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
@@ -1197,11 +1197,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
@@ -1218,32 +1218,32 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Incidente Youtubers</t>
+          <t>Il caso Chiara Ferragni e Balocco</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1297,12 +1297,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1418,17 +1418,17 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Invasione Ucraina</t>
+          <t>Incidente Youtubers</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1607,17 +1607,17 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>L'implosione del sottomarino Titan</t>
+          <t>Invasione Ucraina</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1675,12 +1675,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -1738,12 +1738,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -1796,17 +1796,17 @@
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>L'incoronazione di Re Carlo</t>
+          <t>L'implosione del sottomarino Titan</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -1864,12 +1864,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -1927,12 +1927,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -1985,17 +1985,17 @@
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr">
         <is>
-          <t>L'omicidio di Giulia Cecchettin</t>
+          <t>L'incoronazione di Re Carlo</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2053,12 +2053,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -2116,12 +2116,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -2174,17 +2174,17 @@
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
-          <t>La cattura di Matteo Messina Denaro</t>
+          <t>L'omicidio di Giulia Cecchettin</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -2242,12 +2242,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -2305,16 +2305,16 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -2363,17 +2363,17 @@
       <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr">
         <is>
-          <t>La morte di Silvio Berlusconi</t>
+          <t>La cattura di Matteo Messina Denaro</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -2431,16 +2431,16 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -2494,16 +2494,16 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Il Corrirere Della Sera</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100">
